--- a/xlsx/美国广播公司_intext.xlsx
+++ b/xlsx/美国广播公司_intext.xlsx
@@ -20,922 +20,922 @@
     <t>美国广播公司</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_美国广播公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E6%A8%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>广告标语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BCABC%E9%9B%BB%E8%A6%96%E9%9B%86%E5%9C%98</t>
+  </si>
+  <si>
+    <t>迪士尼ABC电视集团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>华特迪士尼公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/720p</t>
+  </si>
+  <si>
+    <t>720p</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1080i</t>
+  </si>
+  <si>
+    <t>1080i</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%B8%85%E6%99%B0%E5%BA%A6%E7%94%B5%E8%A7%86</t>
+  </si>
+  <si>
+    <t>高清晰度电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/480i</t>
+  </si>
+  <si>
+    <t>480i</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%AF%AC%E6%AF%94_(%E5%BD%B1%E5%83%8F)</t>
+  </si>
+  <si>
+    <t>长宽比 (影像)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%B8%85%E6%99%B0%E5%BA%A6%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>标准清晰度电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD</t>
+  </si>
+  <si>
+    <t>广播</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86</t>
+  </si>
+  <si>
+    <t>电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>全国广播公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>股东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>曼哈顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>弗雷斯诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%8B%92%E5%A7%86</t>
+  </si>
+  <si>
+    <t>达勒姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%88%A9_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>罗利 (北卡罗来纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E8%80%B6%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8C%97%E5%8D%A1%E7%BD%97%E8%8E%B1%E7%BA%B3%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>费耶特维尔 (北卡罗莱纳州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%9F%8E_(%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>贝城 (密歇根州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>哥伦比亚广播公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E9%80%9A%E4%BF%A1%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国联邦通信委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2D</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E5%A4%A7%E5%BB%88</t>
+  </si>
+  <si>
+    <t>帝国大厦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>国家广播公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%9A%E9%96%93%E6%99%82%E6%AE%B5</t>
+  </si>
+  <si>
+    <t>晚间时段</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E5%AE%89%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>早安美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ABC%E4%B8%96%E7%95%8C%E6%96%B0%E8%81%9E</t>
+  </si>
+  <si>
+    <t>ABC世界新闻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/World_News_Now</t>
+  </si>
+  <si>
+    <t>World News Now</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/America_This_Morning</t>
+  </si>
+  <si>
+    <t>en-America This Morning</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>夜线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%9D%8E%E6%91%A9%E5%B0%94%E7%9B%B4%E6%92%AD%E7%A7%80</t>
+  </si>
+  <si>
+    <t>吉米·坎摩尔直播秀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/CBS_(%E9%9B%BB%E8%A6%96%E7%B6%B2)</t>
+  </si>
+  <si>
+    <t>CBS (电视网)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E5%A5%96</t>
+  </si>
+  <si>
+    <t>艾美奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%B4%8D%E5%B7%B4%E4%BC%AF%E6%8B%89%E5%8B%95%E7%95%AB</t>
+  </si>
+  <si>
+    <t>汉纳巴伯拉动画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%A8%E5%8F%B0%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国在台协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B8%82</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>清华大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9D%A2%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>地面电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>电视网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>福斯广播公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>CW电视网</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/America_One</t>
+  </si>
+  <si>
+    <t>en-America One</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/AMG%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>AMG电视网</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Channel_America</t>
+  </si>
+  <si>
+    <t>en-Channel America</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cozi_TV</t>
+  </si>
+  <si>
+    <t>en-Cozi TV</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%AD%90%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>离子电视网</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/My_Family_TV</t>
+  </si>
+  <si>
+    <t>en-My Family TV</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MyNetworkTV</t>
+  </si>
+  <si>
+    <t>MyNetworkTV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tuff_TV</t>
+  </si>
+  <si>
+    <t>en-Tuff TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Youtoo_TV</t>
+  </si>
+  <si>
+    <t>en-Youtoo TV</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%94%B5%E8%A7%86%E7%BD%91</t>
+  </si>
+  <si>
+    <t>公共电视网</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/PBS_Satellite_Service</t>
+  </si>
+  <si>
+    <t>en-PBS Satellite Service</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/World_(TV_channel)</t>
+  </si>
+  <si>
+    <t>en-World (TV channel)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Classic_Arts_Showcase</t>
+  </si>
+  <si>
+    <t>en-Classic Arts Showcase</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Create_(TV_network)</t>
+  </si>
+  <si>
+    <t>en-Create (TV network)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/MHz_WorldView</t>
+  </si>
+  <si>
+    <t>en-MHz WorldView</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/MHz_Networks</t>
+  </si>
+  <si>
+    <t>en-MHz Networks</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NASA_TV</t>
+  </si>
+  <si>
+    <t>en-NASA TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pentagon_Channel</t>
+  </si>
+  <si>
+    <t>en-Pentagon Channel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Specialty_channel</t>
+  </si>
+  <si>
+    <t>en-Specialty channel</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B3%B6%E9%9B%BB%E8%A6%96%E5%8F%B0%E8%8B%B1%E8%AA%9E%E9%A0%BB%E9%81%93</t>
+  </si>
+  <si>
+    <t>半岛电视台英语频道</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Local_AccuWeather_Channel</t>
+  </si>
+  <si>
+    <t>en-The Local AccuWeather Channel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ion_Life</t>
+  </si>
+  <si>
+    <t>en-Ion Life</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Live_Well_Network</t>
+  </si>
+  <si>
+    <t>en-Live Well Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/WeatherNation_TV</t>
+  </si>
+  <si>
+    <t>en-WeatherNation TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Frost_Great_Outdoors</t>
+  </si>
+  <si>
+    <t>en-Frost Great Outdoors</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pursuit_Channel</t>
+  </si>
+  <si>
+    <t>en-Pursuit Channel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Outside_Television</t>
+  </si>
+  <si>
+    <t>en-Outside Television</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Untamed_Sports_TV</t>
+  </si>
+  <si>
+    <t>en-Untamed Sports TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/TheCoolTV</t>
+  </si>
+  <si>
+    <t>en-TheCoolTV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Heartland_(TV_network)</t>
+  </si>
+  <si>
+    <t>en-Heartland (TV network)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/MTV2</t>
+  </si>
+  <si>
+    <t>en-MTV2</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tr3s</t>
+  </si>
+  <si>
+    <t>en-Tr3s</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/ZUUS_Country</t>
+  </si>
+  <si>
+    <t>en-ZUUS Country</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/PBJ_(TV_network)</t>
+  </si>
+  <si>
+    <t>en-PBJ (TV network)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/PBS_Kids</t>
+  </si>
+  <si>
+    <t>en-PBS Kids</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Qubo</t>
+  </si>
+  <si>
+    <t>en-Qubo</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%A3%A1%E9%83%8E%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>阿里郎电视网</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Asia_Vision_(TV_network)</t>
+  </si>
+  <si>
+    <t>en-Asia Vision (TV network)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bounce_TV</t>
+  </si>
+  <si>
+    <t>en-Bounce TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/CaribVision</t>
+  </si>
+  <si>
+    <t>en-CaribVision</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%B9%8B%E8%81%B2</t>
+  </si>
+  <si>
+    <t>德国之声</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/ImaginAsian</t>
+  </si>
+  <si>
+    <t>en-ImaginAsian</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/KBS_World</t>
+  </si>
+  <si>
+    <t>KBS World</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/KEMS</t>
+  </si>
+  <si>
+    <t>en-KEMS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MBC</t>
+  </si>
+  <si>
+    <t>MBC</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NATV_Native_American_Television</t>
+  </si>
+  <si>
+    <t>en-NATV Native American Television</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NHK_World</t>
+  </si>
+  <si>
+    <t>NHK World</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SBS</t>
+  </si>
+  <si>
+    <t>SBS</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Soul_of_the_South_Network</t>
+  </si>
+  <si>
+    <t>en-Soul of the South Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Movies!</t>
+  </si>
+  <si>
+    <t>en-Movies!</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/This_TV</t>
+  </si>
+  <si>
+    <t>en-This TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/GetTV</t>
+  </si>
+  <si>
+    <t>en-GetTV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Antenna_TV</t>
+  </si>
+  <si>
+    <t>en-Antenna TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Me-TV</t>
+  </si>
+  <si>
+    <t>en-Me-TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Retro_Television_Network</t>
+  </si>
+  <si>
+    <t>en-Retro Television Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Shopping_channel</t>
+  </si>
+  <si>
+    <t>en-Shopping channel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Corner_Store_TV</t>
+  </si>
+  <si>
+    <t>en-Corner Store TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Home_Shopping_Network</t>
+  </si>
+  <si>
+    <t>en-Home Shopping Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jewelry_Television</t>
+  </si>
+  <si>
+    <t>en-Jewelry Television</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/OnTV4U</t>
+  </si>
+  <si>
+    <t>en-OnTV4U</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/QVC</t>
+  </si>
+  <si>
+    <t>QVC</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/ShopHQ</t>
+  </si>
+  <si>
+    <t>en-ShopHQ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/DuMont_Television_Network</t>
+  </si>
+  <si>
+    <t>en-DuMont Television Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Educational_Television</t>
+  </si>
+  <si>
+    <t>en-National Educational Television</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>联合派拉蒙电视网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/WB%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>WB电视网</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/American_Independent_Network</t>
+  </si>
+  <si>
+    <t>en-American Independent Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hughes_Television_Network</t>
+  </si>
+  <si>
+    <t>en-Hughes Television Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mizlou_Television_Network</t>
+  </si>
+  <si>
+    <t>en-Mizlou Television Network</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>第一电视网</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NTA_Film_Network</t>
+  </si>
+  <si>
+    <t>en-NTA Film Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Overmyer_Network</t>
+  </si>
+  <si>
+    <t>en-Overmyer Network</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%8B%89%E8%92%99%E7%94%B5%E8%A7%86%E7%BD%91</t>
+  </si>
+  <si>
+    <t>派拉蒙电视网</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Paramount_Television_Network</t>
+  </si>
+  <si>
+    <t>en-Paramount Television Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Plum_TV</t>
+  </si>
+  <si>
+    <t>en-Plum TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Prime_Time_Entertainment_Network</t>
+  </si>
+  <si>
+    <t>en-Prime Time Entertainment Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Theater_Television_Network</t>
+  </si>
+  <si>
+    <t>en-Theater Television Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/TVS_Television_Network</t>
+  </si>
+  <si>
+    <t>en-TVS Television Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Urban_America_Television</t>
+  </si>
+  <si>
+    <t>en-Urban America Television</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Variety_Television_Network</t>
+  </si>
+  <si>
+    <t>en-Variety Television Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/All_News_Channel</t>
+  </si>
+  <si>
+    <t>en-All News Channel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bohemia_Visual_Music</t>
+  </si>
+  <si>
+    <t>en-Bohemia Visual Music</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Box_(U.S.)</t>
+  </si>
+  <si>
+    <t>en-The Box (U.S.)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Colours_TV</t>
+  </si>
+  <si>
+    <t>en-Colours TV</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/NBC_Weather_Plus</t>
+  </si>
+  <si>
+    <t>en-NBC Weather Plus</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Research_Channel</t>
+  </si>
+  <si>
+    <t>en-Research Channel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Retro_Jams</t>
+  </si>
+  <si>
+    <t>en-Retro Jams</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sportsman_Channel</t>
+  </si>
+  <si>
+    <t>en-Sportsman Channel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Tube_Music_Network</t>
+  </si>
+  <si>
+    <t>en-The Tube Music Network</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/White_Springs_Television</t>
+  </si>
+  <si>
+    <t>en-White Springs Television</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Universal_Sports</t>
+  </si>
+  <si>
+    <t>en-Universal Sports</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>有线电视</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/America%27s_Store</t>
+  </si>
+  <si>
+    <t>en-America's Store</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gems_TV_(USA)</t>
+  </si>
+  <si>
+    <t>en-Gems TV (USA)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E8%B3%BC%E7%89%A9%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+  </si>
+  <si>
+    <t>居家购物电视网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>澳洲国家图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国广播公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E6%A8%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>廣告標語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BCABC%E9%9B%BB%E8%A6%96%E9%9B%86%E5%9C%98</t>
-  </si>
-  <si>
-    <t>迪士尼ABC電視集團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>华特迪士尼公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/720p</t>
-  </si>
-  <si>
-    <t>720p</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1080i</t>
-  </si>
-  <si>
-    <t>1080i</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%B8%85%E6%99%B0%E5%BA%A6%E7%94%B5%E8%A7%86</t>
-  </si>
-  <si>
-    <t>高清晰度电视</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/480i</t>
-  </si>
-  <si>
-    <t>480i</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%AF%AC%E6%AF%94_(%E5%BD%B1%E5%83%8F)</t>
-  </si>
-  <si>
-    <t>長寬比 (影像)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%B8%85%E6%99%B0%E5%BA%A6%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>標準清晰度電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD</t>
-  </si>
-  <si>
-    <t>广播</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86</t>
-  </si>
-  <si>
-    <t>电视</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>全国广播公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1</t>
-  </si>
-  <si>
-    <t>股東</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>曼哈顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>弗雷斯诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%8B%92%E5%A7%86</t>
-  </si>
-  <si>
-    <t>达勒姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%88%A9_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>罗利 (北卡罗来纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E8%80%B6%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8C%97%E5%8D%A1%E7%BD%97%E8%8E%B1%E7%BA%B3%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>费耶特维尔 (北卡罗莱纳州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%9F%8E_(%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>贝城 (密歇根州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>哥伦比亚广播公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E9%80%9A%E4%BF%A1%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國聯邦通信委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2D</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E5%A4%A7%E5%BB%88</t>
-  </si>
-  <si>
-    <t>帝國大廈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>國家廣播公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%9A%E9%96%93%E6%99%82%E6%AE%B5</t>
-  </si>
-  <si>
-    <t>晚間時段</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E5%AE%89%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>早安美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ABC%E4%B8%96%E7%95%8C%E6%96%B0%E8%81%9E</t>
-  </si>
-  <si>
-    <t>ABC世界新聞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/World_News_Now</t>
-  </si>
-  <si>
-    <t>World News Now</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/America_This_Morning</t>
-  </si>
-  <si>
-    <t>en-America This Morning</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>夜線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%9D%8E%E6%91%A9%E5%B0%94%E7%9B%B4%E6%92%AD%E7%A7%80</t>
-  </si>
-  <si>
-    <t>吉米·坎摩尔直播秀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/CBS_(%E9%9B%BB%E8%A6%96%E7%B6%B2)</t>
-  </si>
-  <si>
-    <t>CBS (電視網)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E5%A5%96</t>
-  </si>
-  <si>
-    <t>艾美奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%B4%8D%E5%B7%B4%E4%BC%AF%E6%8B%89%E5%8B%95%E7%95%AB</t>
-  </si>
-  <si>
-    <t>漢納巴伯拉動畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%A8%E5%8F%B0%E5%8D%94%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國在台協會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B8%82</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>清华大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9D%A2%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>地面電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>電視網</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>美國廣播公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>福斯廣播公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>CW電視網</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/America_One</t>
-  </si>
-  <si>
-    <t>en-America One</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/AMG%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>AMG電視網</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Channel_America</t>
-  </si>
-  <si>
-    <t>en-Channel America</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cozi_TV</t>
-  </si>
-  <si>
-    <t>en-Cozi TV</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%AD%90%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>離子電視網</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/My_Family_TV</t>
-  </si>
-  <si>
-    <t>en-My Family TV</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MyNetworkTV</t>
-  </si>
-  <si>
-    <t>MyNetworkTV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tuff_TV</t>
-  </si>
-  <si>
-    <t>en-Tuff TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Youtoo_TV</t>
-  </si>
-  <si>
-    <t>en-Youtoo TV</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%94%B5%E8%A7%86%E7%BD%91</t>
-  </si>
-  <si>
-    <t>公共电视网</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/PBS_Satellite_Service</t>
-  </si>
-  <si>
-    <t>en-PBS Satellite Service</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/World_(TV_channel)</t>
-  </si>
-  <si>
-    <t>en-World (TV channel)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Classic_Arts_Showcase</t>
-  </si>
-  <si>
-    <t>en-Classic Arts Showcase</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Create_(TV_network)</t>
-  </si>
-  <si>
-    <t>en-Create (TV network)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/MHz_WorldView</t>
-  </si>
-  <si>
-    <t>en-MHz WorldView</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/MHz_Networks</t>
-  </si>
-  <si>
-    <t>en-MHz Networks</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NASA_TV</t>
-  </si>
-  <si>
-    <t>en-NASA TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pentagon_Channel</t>
-  </si>
-  <si>
-    <t>en-Pentagon Channel</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Specialty_channel</t>
-  </si>
-  <si>
-    <t>en-Specialty channel</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%B3%B6%E9%9B%BB%E8%A6%96%E5%8F%B0%E8%8B%B1%E8%AA%9E%E9%A0%BB%E9%81%93</t>
-  </si>
-  <si>
-    <t>半島電視台英語頻道</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/The_Local_AccuWeather_Channel</t>
-  </si>
-  <si>
-    <t>en-The Local AccuWeather Channel</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ion_Life</t>
-  </si>
-  <si>
-    <t>en-Ion Life</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Live_Well_Network</t>
-  </si>
-  <si>
-    <t>en-Live Well Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/WeatherNation_TV</t>
-  </si>
-  <si>
-    <t>en-WeatherNation TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Frost_Great_Outdoors</t>
-  </si>
-  <si>
-    <t>en-Frost Great Outdoors</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pursuit_Channel</t>
-  </si>
-  <si>
-    <t>en-Pursuit Channel</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Outside_Television</t>
-  </si>
-  <si>
-    <t>en-Outside Television</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Untamed_Sports_TV</t>
-  </si>
-  <si>
-    <t>en-Untamed Sports TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/TheCoolTV</t>
-  </si>
-  <si>
-    <t>en-TheCoolTV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Heartland_(TV_network)</t>
-  </si>
-  <si>
-    <t>en-Heartland (TV network)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/MTV2</t>
-  </si>
-  <si>
-    <t>en-MTV2</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tr3s</t>
-  </si>
-  <si>
-    <t>en-Tr3s</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/ZUUS_Country</t>
-  </si>
-  <si>
-    <t>en-ZUUS Country</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/PBJ_(TV_network)</t>
-  </si>
-  <si>
-    <t>en-PBJ (TV network)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/PBS_Kids</t>
-  </si>
-  <si>
-    <t>en-PBS Kids</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Qubo</t>
-  </si>
-  <si>
-    <t>en-Qubo</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%A3%A1%E9%83%8E%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>阿裡郎電視網</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Asia_Vision_(TV_network)</t>
-  </si>
-  <si>
-    <t>en-Asia Vision (TV network)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bounce_TV</t>
-  </si>
-  <si>
-    <t>en-Bounce TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/CaribVision</t>
-  </si>
-  <si>
-    <t>en-CaribVision</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%B9%8B%E8%81%B2</t>
-  </si>
-  <si>
-    <t>德國之聲</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/ImaginAsian</t>
-  </si>
-  <si>
-    <t>en-ImaginAsian</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/KBS_World</t>
-  </si>
-  <si>
-    <t>KBS World</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/KEMS</t>
-  </si>
-  <si>
-    <t>en-KEMS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MBC</t>
-  </si>
-  <si>
-    <t>MBC</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NATV_Native_American_Television</t>
-  </si>
-  <si>
-    <t>en-NATV Native American Television</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NHK_World</t>
-  </si>
-  <si>
-    <t>NHK World</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SBS</t>
-  </si>
-  <si>
-    <t>SBS</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Soul_of_the_South_Network</t>
-  </si>
-  <si>
-    <t>en-Soul of the South Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Movies!</t>
-  </si>
-  <si>
-    <t>en-Movies!</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/This_TV</t>
-  </si>
-  <si>
-    <t>en-This TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/GetTV</t>
-  </si>
-  <si>
-    <t>en-GetTV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Antenna_TV</t>
-  </si>
-  <si>
-    <t>en-Antenna TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Me-TV</t>
-  </si>
-  <si>
-    <t>en-Me-TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Retro_Television_Network</t>
-  </si>
-  <si>
-    <t>en-Retro Television Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Shopping_channel</t>
-  </si>
-  <si>
-    <t>en-Shopping channel</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Corner_Store_TV</t>
-  </si>
-  <si>
-    <t>en-Corner Store TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Home_Shopping_Network</t>
-  </si>
-  <si>
-    <t>en-Home Shopping Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jewelry_Television</t>
-  </si>
-  <si>
-    <t>en-Jewelry Television</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/OnTV4U</t>
-  </si>
-  <si>
-    <t>en-OnTV4U</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/QVC</t>
-  </si>
-  <si>
-    <t>QVC</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/ShopHQ</t>
-  </si>
-  <si>
-    <t>en-ShopHQ</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/DuMont_Television_Network</t>
-  </si>
-  <si>
-    <t>en-DuMont Television Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Educational_Television</t>
-  </si>
-  <si>
-    <t>en-National Educational Television</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%B4%BE%E6%8B%89%E8%92%99%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>聯合派拉蒙電視網</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/WB%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>WB電視網</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/American_Independent_Network</t>
-  </si>
-  <si>
-    <t>en-American Independent Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hughes_Television_Network</t>
-  </si>
-  <si>
-    <t>en-Hughes Television Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mizlou_Television_Network</t>
-  </si>
-  <si>
-    <t>en-Mizlou Television Network</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>第一電視網</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NTA_Film_Network</t>
-  </si>
-  <si>
-    <t>en-NTA Film Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Overmyer_Network</t>
-  </si>
-  <si>
-    <t>en-Overmyer Network</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E6%8B%89%E8%92%99%E7%94%B5%E8%A7%86%E7%BD%91</t>
-  </si>
-  <si>
-    <t>派拉蒙电视网</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Paramount_Television_Network</t>
-  </si>
-  <si>
-    <t>en-Paramount Television Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Plum_TV</t>
-  </si>
-  <si>
-    <t>en-Plum TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Prime_Time_Entertainment_Network</t>
-  </si>
-  <si>
-    <t>en-Prime Time Entertainment Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Theater_Television_Network</t>
-  </si>
-  <si>
-    <t>en-Theater Television Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/TVS_Television_Network</t>
-  </si>
-  <si>
-    <t>en-TVS Television Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Urban_America_Television</t>
-  </si>
-  <si>
-    <t>en-Urban America Television</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Variety_Television_Network</t>
-  </si>
-  <si>
-    <t>en-Variety Television Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/All_News_Channel</t>
-  </si>
-  <si>
-    <t>en-All News Channel</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bohemia_Visual_Music</t>
-  </si>
-  <si>
-    <t>en-Bohemia Visual Music</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/The_Box_(U.S.)</t>
-  </si>
-  <si>
-    <t>en-The Box (U.S.)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Colours_TV</t>
-  </si>
-  <si>
-    <t>en-Colours TV</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/NBC_Weather_Plus</t>
-  </si>
-  <si>
-    <t>en-NBC Weather Plus</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Research_Channel</t>
-  </si>
-  <si>
-    <t>en-Research Channel</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Retro_Jams</t>
-  </si>
-  <si>
-    <t>en-Retro Jams</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sportsman_Channel</t>
-  </si>
-  <si>
-    <t>en-Sportsman Channel</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/The_Tube_Music_Network</t>
-  </si>
-  <si>
-    <t>en-The Tube Music Network</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/White_Springs_Television</t>
-  </si>
-  <si>
-    <t>en-White Springs Television</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Universal_Sports</t>
-  </si>
-  <si>
-    <t>en-Universal Sports</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>有線電視</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/America%27s_Store</t>
-  </si>
-  <si>
-    <t>en-America's Store</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gems_TV_(USA)</t>
-  </si>
-  <si>
-    <t>en-Gems TV (USA)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E8%B3%BC%E7%89%A9%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
-  </si>
-  <si>
-    <t>居家購物電視網</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>澳洲國家圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,7 +1338,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -1683,7 +1683,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>15</v>
@@ -1709,10 +1709,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>23</v>
@@ -1738,10 +1738,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>34</v>
@@ -1767,13 +1767,13 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -1796,10 +1796,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -1825,10 +1825,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1912,10 +1912,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1941,10 +1941,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1970,10 +1970,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1999,10 +1999,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2028,10 +2028,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2086,10 +2086,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2115,10 +2115,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -2144,10 +2144,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2173,10 +2173,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2202,10 +2202,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2231,10 +2231,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2260,10 +2260,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2289,10 +2289,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2318,10 +2318,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2347,10 +2347,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2376,10 +2376,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2405,10 +2405,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2434,10 +2434,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2463,10 +2463,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2492,10 +2492,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2550,10 +2550,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2579,10 +2579,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2608,10 +2608,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2637,10 +2637,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>99</v>
@@ -2666,10 +2666,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>8</v>
@@ -2695,10 +2695,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>81</v>
@@ -2724,13 +2724,13 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
       </c>
-      <c r="F50" t="s">
-        <v>96</v>
-      </c>
       <c r="G50" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -2753,10 +2753,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2782,10 +2782,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2811,10 +2811,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2840,10 +2840,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2869,10 +2869,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2898,10 +2898,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2927,10 +2927,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2956,10 +2956,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3014,10 +3014,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3043,13 +3043,13 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
       </c>
-      <c r="F61" t="s">
-        <v>118</v>
-      </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -3072,13 +3072,13 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
       </c>
-      <c r="F62" t="s">
-        <v>120</v>
-      </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -3101,10 +3101,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3130,10 +3130,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3159,10 +3159,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3188,10 +3188,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3217,10 +3217,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3246,10 +3246,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3275,10 +3275,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3304,10 +3304,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3333,10 +3333,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3362,10 +3362,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3391,10 +3391,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3420,10 +3420,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3449,10 +3449,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3478,10 +3478,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3507,10 +3507,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3536,10 +3536,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3565,10 +3565,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3594,10 +3594,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3652,13 +3652,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
       </c>
-      <c r="F82" t="s">
-        <v>160</v>
-      </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -3681,10 +3681,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3710,13 +3710,13 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
       </c>
-      <c r="F84" t="s">
-        <v>164</v>
-      </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -3739,10 +3739,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3768,10 +3768,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3797,13 +3797,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
       </c>
-      <c r="F87" t="s">
-        <v>170</v>
-      </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -3826,13 +3826,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
       </c>
-      <c r="F88" t="s">
-        <v>172</v>
-      </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -3855,10 +3855,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3884,10 +3884,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3913,10 +3913,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3942,10 +3942,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3971,10 +3971,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4000,10 +4000,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4029,13 +4029,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
       </c>
-      <c r="F95" t="s">
-        <v>186</v>
-      </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4058,13 +4058,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
       </c>
-      <c r="F96" t="s">
-        <v>188</v>
-      </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4087,10 +4087,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4116,10 +4116,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4145,10 +4145,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4174,10 +4174,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4203,13 +4203,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
       </c>
-      <c r="F101" t="s">
-        <v>198</v>
-      </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4232,10 +4232,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4261,10 +4261,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4290,13 +4290,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
       </c>
-      <c r="F104" t="s">
-        <v>204</v>
-      </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -4319,13 +4319,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
       </c>
-      <c r="F105" t="s">
-        <v>206</v>
-      </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -4348,13 +4348,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
       </c>
-      <c r="F106" t="s">
-        <v>208</v>
-      </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4377,10 +4377,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4406,10 +4406,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4435,10 +4435,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4464,10 +4464,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4493,13 +4493,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
       </c>
-      <c r="F111" t="s">
-        <v>218</v>
-      </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4522,13 +4522,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
       </c>
-      <c r="F112" t="s">
-        <v>220</v>
-      </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -4551,13 +4551,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
       </c>
-      <c r="F113" t="s">
-        <v>222</v>
-      </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -4580,13 +4580,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
       </c>
-      <c r="F114" t="s">
-        <v>224</v>
-      </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -4609,10 +4609,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4638,10 +4638,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4667,10 +4667,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4696,10 +4696,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4725,10 +4725,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4754,10 +4754,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4783,13 +4783,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
       </c>
-      <c r="F121" t="s">
-        <v>238</v>
-      </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -4812,13 +4812,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
       </c>
-      <c r="F122" t="s">
-        <v>240</v>
-      </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -4841,10 +4841,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4870,13 +4870,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
       </c>
-      <c r="F124" t="s">
-        <v>244</v>
-      </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -4899,13 +4899,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
       </c>
-      <c r="F125" t="s">
-        <v>246</v>
-      </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -4928,10 +4928,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4957,10 +4957,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4986,10 +4986,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5015,10 +5015,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5044,10 +5044,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5073,10 +5073,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
-      </c>
-      <c r="F131" t="s">
-        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5102,10 +5102,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5131,10 +5131,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5160,10 +5160,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5189,10 +5189,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5218,10 +5218,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5247,10 +5247,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5276,10 +5276,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5305,10 +5305,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5334,10 +5334,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5363,10 +5363,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5392,10 +5392,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5421,10 +5421,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5450,10 +5450,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5508,10 +5508,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5537,13 +5537,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
       </c>
-      <c r="F147" t="s">
-        <v>290</v>
-      </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -5566,13 +5566,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
       </c>
-      <c r="F148" t="s">
-        <v>292</v>
-      </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -5595,10 +5595,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5624,10 +5624,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5653,10 +5653,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5682,10 +5682,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5711,10 +5711,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5740,10 +5740,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5769,18 +5769,47 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="n">
+        <v>4</v>
+      </c>
+      <c r="H155" t="s">
+        <v>4</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>155</v>
+      </c>
+      <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>306</v>
       </c>
-      <c r="G155" t="n">
-        <v>1</v>
-      </c>
-      <c r="H155" t="s">
-        <v>4</v>
-      </c>
-      <c r="I155" t="n">
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>4</v>
+      </c>
+      <c r="I156" t="n">
         <v>3</v>
       </c>
     </row>
